--- a/BugList.xlsx
+++ b/BugList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Change Password</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>mengikutsertakan no revisi untuk pembayaran individual</t>
+  </si>
+  <si>
+    <t>perhitungan total pada print out salah dgn transaksi kredit salah</t>
+  </si>
+  <si>
+    <t>kolom status seharusnya tidak bisa diedit</t>
   </si>
 </sst>
 </file>
@@ -542,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +630,9 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -849,6 +858,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
@@ -856,6 +873,9 @@
       <c r="B58" t="s">
         <v>52</v>
       </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -883,6 +903,14 @@
         <v>56</v>
       </c>
       <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
         <v>2</v>
       </c>
     </row>
